--- a/Team/Team01/Sprint Burndown.xlsx
+++ b/Team/Team01/Sprint Burndown.xlsx
@@ -126,7 +126,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -250,10 +250,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Sheet1!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>42506</c:v>
                 </c:pt>
@@ -283,16 +283,49 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:f>Sheet1!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>474</c:v>
                 </c:pt>
@@ -321,7 +354,40 @@
                   <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>340</c:v>
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,11 +425,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="2028865808"/>
-        <c:axId val="2028854384"/>
+        <c:axId val="-899525472"/>
+        <c:axId val="-899524928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2028865808"/>
+        <c:axId val="-899525472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,14 +514,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028854384"/>
+        <c:crossAx val="-899524928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2028854384"/>
+        <c:axId val="-899524928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +582,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028865808"/>
+        <c:crossAx val="-899525472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,15 +1188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>126683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1415,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,7 +1582,95 @@
         <v>42515</v>
       </c>
       <c r="C13">
-        <v>340</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>42516</v>
+      </c>
+      <c r="C14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>42517</v>
+      </c>
+      <c r="C15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>42518</v>
+      </c>
+      <c r="C16">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>42519</v>
+      </c>
+      <c r="C17">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>42520</v>
+      </c>
+      <c r="C18">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>42521</v>
+      </c>
+      <c r="C19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>42522</v>
+      </c>
+      <c r="C20">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>42523</v>
+      </c>
+      <c r="C21">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>42524</v>
+      </c>
+      <c r="C22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>42525</v>
+      </c>
+      <c r="C23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>42526</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
